--- a/target/classes/companies/tech/Alphabet/GOOG_Alphabet.xlsx
+++ b/target/classes/companies/tech/Alphabet/GOOG_Alphabet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -18693,7 +18693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -20123,8 +20123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21054,45 +21054,42 @@
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21" t="n">
-        <f>L25*(1+C46)</f>
-        <v>99847.00013525819</v>
-      </c>
-      <c r="D45" s="21" t="n">
-        <f>C45*(1+D46)</f>
-        <v>109831.70029756804</v>
-      </c>
-      <c r="E45" s="21" t="n">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>120814.87049098722</v>
+      <c r="C45" s="60" t="n">
+        <v>102161.0</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>112667.0</v>
+      </c>
+      <c r="E45" s="60" t="n">
+        <v>114005.0</v>
       </c>
       <c r="F45" s="21" t="n">
-        <f t="shared" si="8"/>
-        <v>132896.35772011435</v>
+        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+        <v>125405.50016988112</v>
       </c>
       <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>146185.99369015693</v>
+        <v>137946.05037373834</v>
       </c>
       <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>160804.59327700737</v>
+        <v>151740.65561666797</v>
       </c>
       <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>176885.05284432584</v>
+        <v>166914.72140444658</v>
       </c>
       <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>194573.55839233854</v>
+        <v>183606.19379361466</v>
       </c>
       <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>214030.91452151086</v>
+        <v>201966.81344657176</v>
       </c>
       <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>235434.00629259384</v>
+        <v>222163.495092184</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -21434,7 +21431,7 @@
       </c>
       <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>3296076.088096316</v>
+        <v>3110288.931290576</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
@@ -21443,7 +21440,7 @@
       </c>
       <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>961481.6709206781</v>
+        <v>907286.6398635051</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21456,7 +21453,7 @@
       </c>
       <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>1572526.7347555156</v>
+        <v>1518331.7036983427</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21466,7 +21463,7 @@
       </c>
       <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>111.95548344192069</v>
+        <v>108.09708741719442</v>
       </c>
     </row>
   </sheetData>
@@ -21562,7 +21559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
